--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_9_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_9_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.88000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.285006012707868e-08</v>
+        <v>5.844220662964972e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>1.285006012707868e-08</v>
+        <v>5.844220662964972e-10</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>44.36693410911347</v>
+        <v>52.44626921797015</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[31.094787379161247, 57.6390808390657]</t>
+          <t>[38.54292359529603, 66.34961484064428]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.539743748641854e-08</v>
+        <v>1.336083688130429e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>2.539743748641854e-08</v>
+        <v>1.336083688130429e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2893423303021185, 1.9686056067539637]</t>
+          <t>[1.3270791789938858, 1.9308687580621946]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.518341008477364e-12</v>
+        <v>3.597122599785507e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>1.518341008477364e-12</v>
+        <v>3.597122599785507e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>52.5843003697566</v>
+        <v>58.31606853415646</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.15840635222994, 61.01019438728327]</t>
+          <t>[49.46853113857937, 67.16360592973354]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>17.6888888888891</v>
+        <v>17.67407407407429</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.39807807807828</v>
+        <v>16.52764764764785</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.97969969969992</v>
+        <v>18.82050050050073</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.88000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.629106072265074e-09</v>
+        <v>5.612552522737957e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>1.629106072265074e-09</v>
+        <v>5.612552522737957e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>48.35035972400412</v>
+        <v>40.22008690154149</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[34.091111748528185, 62.60960769948006]</t>
+          <t>[26.69655432647336, 53.74361947660961]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.825179229975049e-08</v>
+        <v>3.229756400102701e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>1.825179229975049e-08</v>
+        <v>3.229756400102701e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.717026615475503</v>
+        <v>1.679289766783733</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.3899739268135036, 2.0440793041375027]</t>
+          <t>[1.2767633807381946, 2.081816152829272]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.79296635503124e-14</v>
+        <v>9.009881729582503e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>8.79296635503124e-14</v>
+        <v>9.009881729582503e-11</v>
       </c>
       <c r="T3" t="n">
-        <v>55.18976237938361</v>
+        <v>55.80642211393003</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.71451376207059, 63.66501099669663]</t>
+          <t>[47.703042851118916, 63.909801376741136]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>17.35423423423445</v>
+        <v>17.48300300300322</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.11123123123143</v>
+        <v>15.95443443443463</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.59723723723746</v>
+        <v>19.0115715715718</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.88000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.370578406323375e-08</v>
+        <v>5.270054059813845e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>1.370578406323375e-08</v>
+        <v>5.270054059813845e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>43.36169276187152</v>
+        <v>40.61168978204653</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[28.502919317598426, 58.22046620614462]</t>
+          <t>[27.98138371155534, 53.24199585253773]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.741862371648864e-07</v>
+        <v>6.116834083691458e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>4.741862371648864e-07</v>
+        <v>6.116834083691458e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>1.867974010242579</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.50318447288881, 2.232763547596349]</t>
+          <t>[1.2138686329185786, 1.9434477076261176]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.958433415438776e-13</v>
+        <v>3.202371701149787e-11</v>
       </c>
       <c r="S4" t="n">
-        <v>1.958433415438776e-13</v>
+        <v>3.202371701149787e-11</v>
       </c>
       <c r="T4" t="n">
-        <v>52.23965817547257</v>
+        <v>58.40609722366631</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.98719439828213, 60.49212195266301]</t>
+          <t>[50.23413064972753, 66.5780637976051]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>16.78054054054075</v>
+        <v>17.86514514514536</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.39411411411431</v>
+        <v>16.47987987988008</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.16696696696719</v>
+        <v>19.25041041041064</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.88000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.370856834492784e-06</v>
+        <v>8.433723652778724e-08</v>
       </c>
       <c r="I5" t="n">
-        <v>1.370856834492784e-06</v>
+        <v>8.433723652778724e-08</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>43.71854317435019</v>
+        <v>45.10666840640788</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[26.94521716307628, 60.4918691856241]</t>
+          <t>[28.933000409898398, 61.28033640291736]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.989522404657109e-06</v>
+        <v>1.151588829406691e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>3.989522404657109e-06</v>
+        <v>1.151588829406691e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>1.691868716347656</v>
+        <v>1.905710858934349</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.2264475824825016, 2.157289850212811]</t>
+          <t>[1.4906055233248878, 2.320816194543811]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.407063964289136e-09</v>
+        <v>5.703437722104354e-12</v>
       </c>
       <c r="S5" t="n">
-        <v>3.407063964289136e-09</v>
+        <v>5.703437722104354e-12</v>
       </c>
       <c r="T5" t="n">
-        <v>48.53715034977016</v>
+        <v>63.42911593227548</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[38.33682892438691, 58.73747177515341]</t>
+          <t>[54.161578206926166, 72.6966536576248]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.935562821131498e-12</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.935562821131498e-12</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>17.44984984985006</v>
+        <v>16.62318318318339</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.68096096096115</v>
+        <v>15.04684684684703</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.21873873873897</v>
+        <v>18.19951951951974</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.88000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.553014017385834e-08</v>
+        <v>2.517030617266158e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>1.553014017385834e-08</v>
+        <v>2.517030617266158e-08</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>42.81723614704566</v>
+        <v>46.75784142324967</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[29.802865811874206, 55.831606482217104]</t>
+          <t>[31.257334145932333, 62.25834870056701]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.65669070578889e-08</v>
+        <v>2.41100214681822e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>3.65669070578889e-08</v>
+        <v>2.41100214681822e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>1.603816069400194</v>
+        <v>1.79250031285904</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.2641844311742698, 1.9434477076261185]</t>
+          <t>[1.42771077550527, 2.157289850212811]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.441380431150719e-12</v>
+        <v>7.187583861423263e-13</v>
       </c>
       <c r="S6" t="n">
-        <v>2.441380431150719e-12</v>
+        <v>7.187583861423263e-13</v>
       </c>
       <c r="T6" t="n">
-        <v>57.47507856629333</v>
+        <v>54.62968441765515</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.2867099569857, 65.66344717560096]</t>
+          <t>[45.51108354360374, 63.74828529170656]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="X6" t="n">
-        <v>17.78450450450472</v>
+        <v>17.0530930930933</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.4936936936939</v>
+        <v>15.66782782782802</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.07531531531555</v>
+        <v>18.43835835835859</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.88000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.568236223587927e-05</v>
+        <v>6.461085000353251e-10</v>
       </c>
       <c r="I7" t="n">
-        <v>2.568236223587927e-05</v>
+        <v>6.461085000353251e-10</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>35.78266518960248</v>
+        <v>49.43952850318682</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[20.671444230250827, 50.89388614895414]</t>
+          <t>[34.70331752343591, 64.17573948293773]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.974895872502991e-05</v>
+        <v>2.33638988156315e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.974895872502991e-05</v>
+        <v>2.33638988156315e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>1.540921321580579</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.0126054398958093, 2.0692372032653488]</t>
+          <t>[1.490605523324887, 2.144710900648888]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.79392310515081e-07</v>
+        <v>1.354472090042691e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>4.79392310515081e-07</v>
+        <v>1.354472090042691e-14</v>
       </c>
       <c r="T7" t="n">
-        <v>52.65251454563833</v>
+        <v>59.09832566447921</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[42.873614115186264, 62.4314149760904]</t>
+          <t>[50.725898808663075, 67.47075252029535]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.863576125695545e-14</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>3.863576125695545e-14</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>18.02354354354377</v>
+        <v>16.95755755755776</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.01561561561581</v>
+        <v>15.71559559559579</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.03147147147172</v>
+        <v>18.19951951951974</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.88000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.162403506782539e-12</v>
+        <v>4.203436154703866e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>1.162403506782539e-12</v>
+        <v>4.203436154703866e-09</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>41.93697141631235</v>
+        <v>50.11166655066951</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[32.103679637707025, 51.77026319491768]</t>
+          <t>[33.302622751873585, 66.92071034946544]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.854117108266109e-11</v>
+        <v>3.074612346942729e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>4.854117108266109e-11</v>
+        <v>3.074612346942729e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>1.817658211986887</v>
+        <v>2.006342455445734</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.553500271144503, 2.081816152829272]</t>
+          <t>[1.6415529180919632, 2.371131992799504]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.909583602355269e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.909583602355269e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>48.47887109494719</v>
+        <v>53.90272490940151</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.739803561721516, 54.21793862817286]</t>
+          <t>[44.79935651831279, 63.006093300490235]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="X8" t="n">
-        <v>16.97177177177198</v>
+        <v>16.24104104104124</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.96780780780801</v>
+        <v>14.85577577577595</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.97573573573595</v>
+        <v>17.62630630630652</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.88000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>8.109728947403028e-05</v>
+        <v>3.61801200099432e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>8.109728947403028e-05</v>
+        <v>3.61801200099432e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>33.25158203822132</v>
+        <v>39.32871950985429</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[15.768382240665026, 50.73478183577762]</t>
+          <t>[22.241929287012255, 56.41550973269632]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0003933624912111355</v>
+        <v>3.0593261736378e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0003933624912111355</v>
+        <v>3.0593261736378e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.930868758062195</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.3270791789938858, 2.5346583371305034]</t>
+          <t>[1.352237078121731, 2.35855304323558]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>6.90180217421954e-08</v>
+        <v>2.3813579996812e-09</v>
       </c>
       <c r="S9" t="n">
-        <v>6.90180217421954e-08</v>
+        <v>2.3813579996812e-09</v>
       </c>
       <c r="T9" t="n">
-        <v>55.40531069922883</v>
+        <v>58.01121042098661</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.64462761033693, 65.16599378812074]</t>
+          <t>[48.36745574251387, 67.65496509945936]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.661338147750939e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>6.661338147750939e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>16.54150150150171</v>
+        <v>16.81425425425446</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.2467267267269</v>
+        <v>14.90354354354373</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.83627627627651</v>
+        <v>18.7249649649652</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.88000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.576517962566861e-06</v>
+        <v>3.333083808954029e-10</v>
       </c>
       <c r="I10" t="n">
-        <v>3.576517962566861e-06</v>
+        <v>3.333083808954029e-10</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>36.76476459794721</v>
+        <v>52.89864499582566</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[20.25002299594921, 53.2795061999452]</t>
+          <t>[37.53595359609608, 68.26133639555525]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>5.017096278026045e-05</v>
+        <v>1.271421989912369e-08</v>
       </c>
       <c r="O10" t="n">
-        <v>5.017096278026045e-05</v>
+        <v>1.271421989912369e-08</v>
       </c>
       <c r="P10" t="n">
-        <v>2.03150035457358</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.5283423720166551, 2.5346583371305043]</t>
+          <t>[1.5283423720166542, 2.182447749340657]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.216997696535827e-10</v>
+        <v>6.661338147750939e-15</v>
       </c>
       <c r="S10" t="n">
-        <v>2.216997696535827e-10</v>
+        <v>6.661338147750939e-15</v>
       </c>
       <c r="T10" t="n">
-        <v>54.1364081149521</v>
+        <v>60.9686511841302</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.130448218238385, 63.14236801166581]</t>
+          <t>[52.227307776713, 69.7099945915474]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>16.15903903903924</v>
+        <v>16.81425425425446</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.2467267267269</v>
+        <v>15.57229229229248</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.07135135135158</v>
+        <v>18.05621621621644</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.62000000000025</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.605237787780325e-07</v>
+        <v>4.103928308296645e-11</v>
       </c>
       <c r="I11" t="n">
-        <v>4.605237787780325e-07</v>
+        <v>4.103928308296645e-11</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>38.09346646021651</v>
+        <v>54.21010209746521</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[23.03740031675266, 53.14953260368036]</t>
+          <t>[40.07624142449497, 68.34396277043545]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>6.680085280041936e-06</v>
+        <v>8.687848218613681e-10</v>
       </c>
       <c r="O11" t="n">
-        <v>6.680085280041936e-06</v>
+        <v>8.687848218613681e-10</v>
       </c>
       <c r="P11" t="n">
-        <v>1.867974010242579</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.415131825941348, 2.320816194543811]</t>
+          <t>[1.1006580868432705, 1.6792897667837332]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.232514090787618e-10</v>
+        <v>1.442179708988078e-12</v>
       </c>
       <c r="S11" t="n">
-        <v>1.232514090787618e-10</v>
+        <v>1.442179708988078e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>46.77533912779121</v>
+        <v>58.98065450734864</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[38.36789078599283, 55.182787469589584]</t>
+          <t>[50.747781012552664, 67.21352800214461]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.310063169057685e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.310063169057685e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.59783783783801</v>
+        <v>18.09881881881897</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.89549549549565</v>
+        <v>17.02870870870885</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.30018018018038</v>
+        <v>19.16892892892909</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.62000000000025</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.692059478670572e-07</v>
+        <v>3.819359939427613e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>2.692059478670572e-07</v>
+        <v>3.819359939427613e-09</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>45.16447827936786</v>
+        <v>47.69800672592151</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[28.61753071429078, 61.71142584444493]</t>
+          <t>[32.25030591710904, 63.14570753473398]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.728307992721057e-06</v>
+        <v>1.476176711978638e-07</v>
       </c>
       <c r="O12" t="n">
-        <v>1.728307992721057e-06</v>
+        <v>1.476176711978638e-07</v>
       </c>
       <c r="P12" t="n">
-        <v>1.779921363295117</v>
+        <v>1.968605606753964</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.364816027685655, 2.19502669890458]</t>
+          <t>[1.6163950189641163, 2.320816194543811]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.165023881341767e-11</v>
+        <v>1.13242748511766e-14</v>
       </c>
       <c r="S12" t="n">
-        <v>4.165023881341767e-11</v>
+        <v>1.13242748511766e-14</v>
       </c>
       <c r="T12" t="n">
-        <v>57.09791969511789</v>
+        <v>51.41202158344275</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[47.37618435513209, 66.8196550351037]</t>
+          <t>[42.83727845285039, 59.98676471403511]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W12" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X12" t="n">
-        <v>16.92884884884903</v>
+        <v>15.95859859859873</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.36836836836853</v>
+        <v>14.65585585585598</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.48932932932953</v>
+        <v>17.26134134134149</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.62000000000025</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.444033946919944e-11</v>
+        <v>8.30995816603064e-09</v>
       </c>
       <c r="I13" t="n">
-        <v>3.444033946919944e-11</v>
+        <v>8.30995816603064e-09</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>54.49171507526373</v>
+        <v>45.86239313492663</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[38.63534903470838, 70.34808111581907]</t>
+          <t>[30.5902799861953, 61.134506283657956]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.331749532873516e-08</v>
+        <v>2.64634216540216e-07</v>
       </c>
       <c r="O13" t="n">
-        <v>1.331749532873516e-08</v>
+        <v>2.64634216540216e-07</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06923720326535</v>
+        <v>1.867974010242579</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.7547634641672731, 2.383710942363426]</t>
+          <t>[1.515763422452732, 2.220184598032427]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.328271240363392e-14</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>6.328271240363392e-14</v>
       </c>
       <c r="T13" t="n">
-        <v>61.54681968999423</v>
+        <v>48.25856607768148</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[53.237664606930224, 69.85597477305824]</t>
+          <t>[39.77927516833208, 56.73785698703088]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>6.217248937900877e-15</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>6.217248937900877e-15</v>
       </c>
       <c r="X13" t="n">
-        <v>15.84124124124141</v>
+        <v>16.33081081081095</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.65905905905922</v>
+        <v>15.02806806806819</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.0234234234236</v>
+        <v>17.6335535535537</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.62000000000025</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.079021552108372e-07</v>
+        <v>1.486405443174021e-10</v>
       </c>
       <c r="I14" t="n">
-        <v>1.079021552108372e-07</v>
+        <v>1.486405443174021e-10</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>48.68426625147962</v>
+        <v>48.56401675339361</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[29.729049166987323, 67.63948333597192]</t>
+          <t>[34.06355920997209, 63.06447429681513]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>5.160347487986883e-06</v>
+        <v>2.432213519476534e-08</v>
       </c>
       <c r="O14" t="n">
-        <v>5.160347487986883e-06</v>
+        <v>2.432213519476534e-08</v>
       </c>
       <c r="P14" t="n">
-        <v>2.044079304137503</v>
+        <v>2.094395102393195</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.6415529180919632, 2.446605690183042]</t>
+          <t>[1.7799213632951174, 2.4088688414912722]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.55573340268711e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.55573340268711e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>53.21512980024369</v>
+        <v>55.15004938964165</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[43.131063571080375, 63.299196029407014]</t>
+          <t>[47.36986657438567, 62.930232204897635]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>7.438494264988549e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.438494264988549e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>15.93581581581599</v>
+        <v>15.49333333333346</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.42262262262278</v>
+        <v>14.33017017017029</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.4490090090092</v>
+        <v>16.65649649649664</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_9_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_9_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.86000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>5.844220662964972e-10</v>
+        <v>9.319761629100753e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>5.844220662964972e-10</v>
+        <v>9.319761629100753e-10</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>52.44626921797015</v>
+        <v>51.96284332239171</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[38.54292359529603, 66.34961484064428]</t>
+          <t>[37.54549162786206, 66.38019501692136]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.336083688130429e-09</v>
+        <v>4.211541781984351e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>1.336083688130429e-09</v>
+        <v>4.211541781984351e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.62897396852804</v>
+        <v>1.679289766783733</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3270791789938858, 1.9308687580621946]</t>
+          <t>[1.3522370781217328, 2.0063424554457336]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.597122599785507e-14</v>
+        <v>1.796340853843503e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>3.597122599785507e-14</v>
+        <v>1.796340853843503e-13</v>
       </c>
       <c r="T2" t="n">
-        <v>58.31606853415646</v>
+        <v>50.0707569592324</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.46853113857937, 67.16360592973354]</t>
+          <t>[41.161533869387156, 58.97998004907765]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>9.325873406851315e-15</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>9.325873406851315e-15</v>
       </c>
       <c r="X2" t="n">
-        <v>17.67407407407429</v>
+        <v>17.44636636636658</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.52764764764785</v>
+        <v>16.2070070070072</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.82050050050073</v>
+        <v>18.68572572572595</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.86000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.612552522737957e-08</v>
+        <v>4.501704198300871e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>5.612552522737957e-08</v>
+        <v>4.501704198300871e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>40.22008690154149</v>
+        <v>42.68495998506796</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[26.69655432647336, 53.74361947660961]</t>
+          <t>[27.875514439339554, 57.49440553079637]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.229756400102701e-07</v>
+        <v>6.071421017050938e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>3.229756400102701e-07</v>
+        <v>6.071421017050938e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.679289766783733</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2767633807381946, 2.081816152829272]</t>
+          <t>[1.4151318259413488, 2.220184598032426]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>9.009881729582503e-11</v>
+        <v>9.310552329111488e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>9.009881729582503e-11</v>
+        <v>9.310552329111488e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>55.80642211393003</v>
+        <v>52.69594234635163</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.703042851118916, 63.909801376741136]</t>
+          <t>[44.16793268747529, 61.223952005227964]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X3" t="n">
-        <v>17.48300300300322</v>
+        <v>16.92202202202222</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.95443443443463</v>
+        <v>15.39665665665684</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.0115715715718</v>
+        <v>18.4473873873876</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.86000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.270054059813845e-08</v>
+        <v>4.605113546052308e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>5.270054059813845e-08</v>
+        <v>4.605113546052308e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>40.61168978204653</v>
+        <v>41.12679533314328</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[27.98138371155534, 53.24199585253773]</t>
+          <t>[28.3611971961718, 53.89239347011477]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.116834083691458e-08</v>
+        <v>5.857724172386725e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>6.116834083691458e-08</v>
+        <v>5.857724172386725e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>1.578658170272348</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.2138686329185786, 1.9434477076261176]</t>
+          <t>[1.1887107337907326, 1.9182898084982716]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.202371701149787e-11</v>
+        <v>5.057199103930543e-11</v>
       </c>
       <c r="S4" t="n">
-        <v>3.202371701149787e-11</v>
+        <v>5.057199103930543e-11</v>
       </c>
       <c r="T4" t="n">
-        <v>58.40609722366631</v>
+        <v>49.47965318745305</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.23413064972753, 66.5780637976051]</t>
+          <t>[41.26535780995091, 57.69394856495518]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>17.86514514514536</v>
+        <v>17.92304304304326</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.47987987988008</v>
+        <v>16.54068068068088</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.25041041041064</v>
+        <v>19.30540540540564</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.86000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>8.433723652778724e-08</v>
+        <v>1.437595265052494e-09</v>
       </c>
       <c r="I5" t="n">
-        <v>8.433723652778724e-08</v>
+        <v>1.437595265052494e-09</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>45.10666840640788</v>
+        <v>49.47981969802603</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[28.933000409898398, 61.28033640291736]</t>
+          <t>[35.72101908336262, 63.23862031268945]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.151588829406691e-06</v>
+        <v>4.447608281665794e-09</v>
       </c>
       <c r="O5" t="n">
-        <v>1.151588829406691e-06</v>
+        <v>4.447608281665794e-09</v>
       </c>
       <c r="P5" t="n">
-        <v>1.905710858934349</v>
+        <v>1.478026573760963</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.4906055233248878, 2.320816194543811]</t>
+          <t>[1.1635528346628856, 1.7925003128590404]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5.703437722104354e-12</v>
+        <v>2.816857858078947e-12</v>
       </c>
       <c r="S5" t="n">
-        <v>5.703437722104354e-12</v>
+        <v>2.816857858078947e-12</v>
       </c>
       <c r="T5" t="n">
-        <v>63.42911593227548</v>
+        <v>50.5298701765248</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[54.161578206926166, 72.6966536576248]</t>
+          <t>[41.92027384060318, 59.13946651244641]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="X5" t="n">
-        <v>16.62318318318339</v>
+        <v>18.20904904904927</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.04684684684703</v>
+        <v>17.01735735735756</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.19951951951974</v>
+        <v>19.40074074074098</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.86000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.517030617266158e-08</v>
+        <v>2.618212050498059e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>2.517030617266158e-08</v>
+        <v>2.618212050498059e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>46.75784142324967</v>
+        <v>38.79562577631098</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[31.257334145932333, 62.25834870056701]</t>
+          <t>[23.650197724362656, 53.9410538282593]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.41100214681822e-07</v>
+        <v>5.404373960349318e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>2.41100214681822e-07</v>
+        <v>5.404373960349318e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.79250031285904</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.42771077550527, 2.157289850212811]</t>
+          <t>[1.478026573760963, 2.35855304323558]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>7.187583861423263e-13</v>
+        <v>2.634470419593526e-11</v>
       </c>
       <c r="S6" t="n">
-        <v>7.187583861423263e-13</v>
+        <v>2.634470419593526e-11</v>
       </c>
       <c r="T6" t="n">
-        <v>54.62968441765515</v>
+        <v>51.46920006338003</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.51108354360374, 63.74828529170656]</t>
+          <t>[43.101812211130756, 59.8365879156293]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W6" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X6" t="n">
-        <v>17.0530930930933</v>
+        <v>16.54068068068088</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.66782782782802</v>
+        <v>14.87231231231249</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.43835835835859</v>
+        <v>18.20904904904927</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.86000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>6.461085000353251e-10</v>
+        <v>5.544682913916077e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>6.461085000353251e-10</v>
+        <v>5.544682913916077e-07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>49.43952850318682</v>
+        <v>48.1637138498008</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[34.70331752343591, 64.17573948293773]</t>
+          <t>[29.5485918965163, 66.7788358030853]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.33638988156315e-08</v>
+        <v>4.539707530559767e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>2.33638988156315e-08</v>
+        <v>4.539707530559767e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.817658211986887</v>
+        <v>1.893131909370426</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.490605523324887, 2.144710900648888]</t>
+          <t>[1.4402897250691948, 2.345974093671656]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.354472090042691e-14</v>
+        <v>8.502798465315209e-11</v>
       </c>
       <c r="S7" t="n">
-        <v>1.354472090042691e-14</v>
+        <v>8.502798465315209e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>59.09832566447921</v>
+        <v>58.33578321941459</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.725898808663075, 67.47075252029535]</t>
+          <t>[47.57979784960274, 69.09176858922643]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>3.042011087472929e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3.042011087472929e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>16.95755755755776</v>
+        <v>16.63601601601621</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.71559559559579</v>
+        <v>14.91997997998016</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.19951951951974</v>
+        <v>18.35205205205227</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.86000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.203436154703866e-09</v>
+        <v>1.085587428839574e-07</v>
       </c>
       <c r="I8" t="n">
-        <v>4.203436154703866e-09</v>
+        <v>1.085587428839574e-07</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>50.11166655066951</v>
+        <v>43.64309298442403</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[33.302622751873585, 66.92071034946544]</t>
+          <t>[28.798930554536966, 58.48725541431109]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.074612346942729e-07</v>
+        <v>4.080959441488119e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>3.074612346942729e-07</v>
+        <v>4.080959441488119e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>2.006342455445734</v>
+        <v>1.754763464167271</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.6415529180919632, 2.371131992799504]</t>
+          <t>[1.3522370781217319, 2.157289850212811]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.909583602355269e-14</v>
+        <v>2.595967885099526e-11</v>
       </c>
       <c r="S8" t="n">
-        <v>1.909583602355269e-14</v>
+        <v>2.595967885099526e-11</v>
       </c>
       <c r="T8" t="n">
-        <v>53.90272490940151</v>
+        <v>54.94362738105099</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.79935651831279, 63.006093300490235]</t>
+          <t>[45.89828435514751, 63.988970406954465]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W8" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X8" t="n">
-        <v>16.24104104104124</v>
+        <v>17.16036036036056</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.85577577577595</v>
+        <v>15.63499499499518</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.62630630630652</v>
+        <v>18.68572572572595</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.86000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.61801200099432e-06</v>
+        <v>9.454457883251166e-09</v>
       </c>
       <c r="I9" t="n">
-        <v>3.61801200099432e-06</v>
+        <v>9.454457883251166e-09</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>39.32871950985429</v>
+        <v>46.19961641728495</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[22.241929287012255, 56.41550973269632]</t>
+          <t>[29.232006102087155, 63.167226732482746]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.0593261736378e-05</v>
+        <v>1.808671894254488e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>3.0593261736378e-05</v>
+        <v>1.808671894254488e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>1.855395060678656</v>
+        <v>2.132131951084964</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.352237078121731, 2.35855304323558]</t>
+          <t>[1.7547634641672705, 2.5095004380026573]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.3813579996812e-09</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="S9" t="n">
-        <v>2.3813579996812e-09</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="T9" t="n">
-        <v>58.01121042098661</v>
+        <v>58.34836628576064</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[48.36745574251387, 67.65496509945936]</t>
+          <t>[49.68017332406629, 67.01655924745499]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>16.81425425425446</v>
+        <v>15.73033033033052</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.90354354354373</v>
+        <v>14.30030030030047</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.7249649649652</v>
+        <v>17.16036036036057</v>
       </c>
     </row>
     <row r="10">
@@ -1269,53 +1269,53 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.86000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.333083808954029e-10</v>
+        <v>1.712758823657623e-10</v>
       </c>
       <c r="I10" t="n">
-        <v>3.333083808954029e-10</v>
+        <v>1.712758823657623e-10</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>52.89864499582566</v>
+        <v>48.42962144898065</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[37.53595359609608, 68.26133639555525]</t>
+          <t>[34.2312274810575, 62.62801541690379]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.271421989912369e-08</v>
+        <v>1.589061349172027e-08</v>
       </c>
       <c r="O10" t="n">
-        <v>1.271421989912369e-08</v>
+        <v>1.589061349172027e-08</v>
       </c>
       <c r="P10" t="n">
-        <v>1.855395060678656</v>
+        <v>1.943447707626119</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.5283423720166542, 2.182447749340657]</t>
+          <t>[1.628973968528041, 2.257921446724196]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>6.661338147750939e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S10" t="n">
-        <v>6.661338147750939e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T10" t="n">
-        <v>60.9686511841302</v>
+        <v>55.22925984199777</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[52.227307776713, 69.7099945915474]</t>
+          <t>[47.41741195552936, 63.04110772846617]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>16.81425425425446</v>
+        <v>16.44534534534554</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.57229229229248</v>
+        <v>15.25365365365383</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.05621621621644</v>
+        <v>17.63703703703725</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.24000000000019</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.103928308296645e-11</v>
+        <v>3.19882150323636e-07</v>
       </c>
       <c r="I11" t="n">
-        <v>4.103928308296645e-11</v>
+        <v>3.19882150323636e-07</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>54.21010209746521</v>
+        <v>42.49372745582973</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[40.07624142449497, 68.34396277043545]</t>
+          <t>[26.55072304640506, 58.43673186525441]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>8.687848218613681e-10</v>
+        <v>2.67477932447413e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>8.687848218613681e-10</v>
+        <v>2.67477932447413e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>1.389973926813502</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.1006580868432705, 1.6792897667837332]</t>
+          <t>[1.3899739268135027, 2.245342497160272]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.442179708988078e-12</v>
+        <v>5.355205168200428e-11</v>
       </c>
       <c r="S11" t="n">
-        <v>1.442179708988078e-12</v>
+        <v>5.355205168200428e-11</v>
       </c>
       <c r="T11" t="n">
-        <v>58.98065450734864</v>
+        <v>56.59945948369175</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[50.747781012552664, 67.21352800214461]</t>
+          <t>[47.32792949817883, 65.87098946920466]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X11" t="n">
-        <v>18.09881881881897</v>
+        <v>17.02152152152174</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.02870870870885</v>
+        <v>15.39129129129149</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.16892892892909</v>
+        <v>18.65175175175199</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.24000000000019</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.819359939427613e-09</v>
+        <v>1.737483490416025e-10</v>
       </c>
       <c r="I12" t="n">
-        <v>3.819359939427613e-09</v>
+        <v>1.737483490416025e-10</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>47.69800672592151</v>
+        <v>48.60260085759045</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[32.25030591710904, 63.14570753473398]</t>
+          <t>[34.17984331521611, 63.025358399964794]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.476176711978638e-07</v>
+        <v>2.108600405392735e-08</v>
       </c>
       <c r="O12" t="n">
-        <v>1.476176711978638e-07</v>
+        <v>2.108600405392735e-08</v>
       </c>
       <c r="P12" t="n">
-        <v>1.968605606753964</v>
+        <v>2.056658253701427</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.6163950189641163, 2.320816194543811]</t>
+          <t>[1.7296055650394262, 2.383710942363427]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.13242748511766e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S12" t="n">
-        <v>1.13242748511766e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T12" t="n">
-        <v>51.41202158344275</v>
+        <v>55.66674188856879</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[42.83727845285039, 59.98676471403511]</t>
+          <t>[47.80445566205404, 63.52902811508355]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>15.95859859859873</v>
+        <v>16.11051051051071</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.65585585585598</v>
+        <v>14.86386386386405</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.26134134134149</v>
+        <v>17.35715715715738</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.24000000000019</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>8.30995816603064e-09</v>
+        <v>1.224338515015688e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>8.30995816603064e-09</v>
+        <v>1.224338515015688e-07</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>45.86239313492663</v>
+        <v>48.01521374959213</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[30.5902799861953, 61.134506283657956]</t>
+          <t>[30.1393698663683, 65.89105763281596]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.64634216540216e-07</v>
+        <v>2.323672568138591e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>2.64634216540216e-07</v>
+        <v>2.323672568138591e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>1.867974010242579</v>
+        <v>1.943447707626119</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.515763422452732, 2.220184598032427]</t>
+          <t>[1.528342372016656, 2.358553043235581]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>6.328271240363392e-14</v>
+        <v>3.167022200045722e-12</v>
       </c>
       <c r="S13" t="n">
-        <v>6.328271240363392e-14</v>
+        <v>3.167022200045722e-12</v>
       </c>
       <c r="T13" t="n">
-        <v>48.25856607768148</v>
+        <v>55.3429482120369</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[39.77927516833208, 56.73785698703088]</t>
+          <t>[45.31010327775043, 65.37579314632337]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>1.731947918415244e-14</v>
       </c>
       <c r="W13" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>1.731947918415244e-14</v>
       </c>
       <c r="X13" t="n">
-        <v>16.33081081081095</v>
+        <v>16.54204204204225</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.02806806806819</v>
+        <v>14.95975975975995</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.6335535535537</v>
+        <v>18.12432432432455</v>
       </c>
     </row>
     <row r="14">
@@ -1613,39 +1613,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.24000000000019</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.486405443174021e-10</v>
+        <v>5.855871343385388e-12</v>
       </c>
       <c r="I14" t="n">
-        <v>1.486405443174021e-10</v>
+        <v>5.855871343385388e-12</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>48.56401675339361</v>
+        <v>51.01355752880936</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[34.06355920997209, 63.06447429681513]</t>
+          <t>[37.51302068516269, 64.51409437245604]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2.432213519476534e-08</v>
+        <v>1.278864347753483e-09</v>
       </c>
       <c r="O14" t="n">
-        <v>2.432213519476534e-08</v>
+        <v>1.278864347753483e-09</v>
       </c>
       <c r="P14" t="n">
-        <v>2.094395102393195</v>
+        <v>1.993763505881811</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.7799213632951174, 2.4088688414912722]</t>
+          <t>[1.7170266154755023, 2.270500396288119]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1655,11 +1655,11 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>55.15004938964165</v>
+        <v>48.91346353110937</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[47.36986657438567, 62.930232204897635]</t>
+          <t>[41.548042557021425, 56.27888450519732]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>15.49333333333346</v>
+        <v>16.35025025025046</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.33017017017029</v>
+        <v>15.29539539539559</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.65649649649664</v>
+        <v>17.40510510510533</v>
       </c>
     </row>
   </sheetData>
